--- a/biology/Botanique/Antidesma/Antidesma.xlsx
+++ b/biology/Botanique/Antidesma/Antidesma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antidesma est un genre de plantes à fleurs de la famille des Phyllanthaceae qui comprend 170 espèces.
 Ce sont des arbustes et des arbres tropicaux jusqu'à une hauteur de 30 m[réf. nécessaire], situés dans les forêts à feuilles persistantes.
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles sont généralement persistantes. Elles sont reliées aux rameaux par l'intermédiaire de pétioles et de stipules.
 Ces plantes sont dioïques. Les fleurs grandissent groupées en racèmes, avec une bractée par fleur, sur un court pédicelle. Leur couleur est jaune-vert, mais peut devenir rouge à maturité. Il existe 3 à 8 sépales fusionnées, mais pas de pétales. Les fleurs mâles ont 2 à 8 étamines, mais pas de pistils. Les fleurs femelles ont de 2 à 6 stigmates. Ils ont un ovaire loculeux avec 2 ovules.
@@ -547,9 +561,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (5 sept. 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (5 sept. 2012) :
 Antidesma acidum Retz., (1788) (Thaïlande)
 Antidesma alexiteria L., (1753)
 Antidesma ambiguum Pax &amp; K.Hoffm.  , (1922)
@@ -703,9 +719,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (6 sept. 2012)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (6 sept. 2012) :
 Antidesma acuminatissimum Quisumb. &amp; Merr., (1928) = Antidesma japonicum var. japonicum
 Antidesma acuminatum Wight, (1853) = Antidesma montanum var. montanum
 Antidesma acutisepalum Hayata, (1920) = Antidesma japonicum var. japonicum
